--- a/code/Data/Price_Data.xlsx
+++ b/code/Data/Price_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Quant\Reference\Black-Litterman-Model\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9451401B-90ED-47CF-B938-D4E01CE2E603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFE7FC0-EAE3-41AA-9E05-6AD173E13555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="4650" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="4" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -160,10 +160,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,7 +448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADE8127-1FA1-4201-8E27-97E7173F6182}">
   <dimension ref="A1:N526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="H533" sqref="H533"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
